--- a/table_types.xlsx
+++ b/table_types.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tysononline-my.sharepoint.com/personal/mahesh_g_tyson_com/Documents/Documents/DBT/DBT Cutover Team/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tysononline.sharepoint.com/sites/PR102558/Shared Documents/General/D&amp;A/DBT Cutover Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{787BA971-946C-47E4-B35E-D31E194C2E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C96F297-DC0A-4BF4-9775-AAD2C1295F98}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4CA4F06-0D9C-4071-B924-13F2FE4640F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D4D6FE4-5B91-460B-BF13-F40F40733FE2}"/>
+    <workbookView minimized="1" xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{1D4D6FE4-5B91-460B-BF13-F40F40733FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$587</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="589">
   <si>
     <t>table</t>
   </si>
@@ -290,9 +291,6 @@
     <t>DIM_DATE</t>
   </si>
   <si>
-    <t>DIM_CUSTOMER_SALES_POSITION</t>
-  </si>
-  <si>
     <t>DIM_CUSTOMER_SALES_POSITION_T2_PERF</t>
   </si>
   <si>
@@ -1401,9 +1399,6 @@
   </si>
   <si>
     <t>DIM_CURRENCY</t>
-  </si>
-  <si>
-    <t>DIM_CURRENCY_T2_PERF</t>
   </si>
   <si>
     <t>STG_FACT_UNIVERSAL_JOURNAL_ENTRY_PERFORMANCE_PROD_READY</t>
@@ -1818,13 +1813,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1847,8 +1848,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2166,16 +2168,16 @@
   <dimension ref="A1:B587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B590" sqref="B590"/>
+      <selection activeCell="C590" sqref="C590"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="96.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2191,7 +2193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2199,7 +2201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2215,7 +2217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2239,7 +2241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2255,7 +2257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2271,12 +2273,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2300,7 +2302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2324,7 +2326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2332,7 +2334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2340,7 +2342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2348,7 +2350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2364,7 +2366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2372,7 +2374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2388,7 +2390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2396,7 +2398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2412,7 +2414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2420,7 +2422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2436,7 +2438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2444,7 +2446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2476,7 +2478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2484,7 +2486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2500,7 +2502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2508,7 +2510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2516,7 +2518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2596,7 +2598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2612,7 +2614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2628,7 +2630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2668,7 +2670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2692,12 +2694,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2721,7 +2723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2737,7 +2739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2761,7 +2763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2777,7 +2779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2785,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2801,3753 +2803,3750 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>84</v>
       </c>
-      <c r="B81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>87</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>88</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>89</v>
       </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>91</v>
       </c>
-      <c r="B88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>92</v>
       </c>
-      <c r="B89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>94</v>
       </c>
-      <c r="B91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>95</v>
       </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>96</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>97</v>
       </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>98</v>
       </c>
-      <c r="B95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>100</v>
       </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>101</v>
       </c>
-      <c r="B98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>102</v>
       </c>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>103</v>
       </c>
-      <c r="B100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>104</v>
       </c>
-      <c r="B101" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>105</v>
       </c>
-      <c r="B102" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>106</v>
       </c>
-      <c r="B103" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>107</v>
       </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>108</v>
       </c>
-      <c r="B105" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>109</v>
       </c>
-      <c r="B106" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>110</v>
       </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>111</v>
       </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>112</v>
       </c>
-      <c r="B109" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>113</v>
       </c>
-      <c r="B110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>115</v>
       </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>116</v>
       </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>117</v>
       </c>
-      <c r="B114" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>118</v>
       </c>
-      <c r="B115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>119</v>
       </c>
-      <c r="B116" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>120</v>
       </c>
-      <c r="B117" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>121</v>
       </c>
-      <c r="B118" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>122</v>
       </c>
-      <c r="B119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>123</v>
       </c>
-      <c r="B120" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>124</v>
       </c>
-      <c r="B121" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>125</v>
       </c>
-      <c r="B122" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>126</v>
       </c>
-      <c r="B123" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>127</v>
       </c>
-      <c r="B124" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>129</v>
       </c>
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>130</v>
       </c>
-      <c r="B127" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>131</v>
       </c>
-      <c r="B128" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>132</v>
       </c>
-      <c r="B129" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>133</v>
       </c>
-      <c r="B130" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>134</v>
       </c>
-      <c r="B131" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>135</v>
       </c>
-      <c r="B132" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>136</v>
       </c>
-      <c r="B133" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>137</v>
       </c>
-      <c r="B134" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>138</v>
       </c>
-      <c r="B135" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>139</v>
       </c>
-      <c r="B136" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>140</v>
       </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>142</v>
       </c>
-      <c r="B139" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>144</v>
       </c>
-      <c r="B141" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>145</v>
       </c>
-      <c r="B142" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>146</v>
       </c>
-      <c r="B143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>148</v>
       </c>
-      <c r="B145" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>150</v>
       </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>151</v>
       </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>152</v>
       </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>153</v>
       </c>
-      <c r="B150" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>154</v>
       </c>
-      <c r="B151" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>155</v>
       </c>
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>156</v>
       </c>
-      <c r="B153" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>157</v>
       </c>
-      <c r="B154" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
         <v>158</v>
       </c>
-      <c r="B155" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>159</v>
       </c>
-      <c r="B156" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
         <v>160</v>
       </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
         <v>161</v>
       </c>
-      <c r="B158" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>162</v>
       </c>
-      <c r="B159" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>163</v>
       </c>
-      <c r="B160" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>164</v>
       </c>
-      <c r="B161" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
         <v>165</v>
       </c>
-      <c r="B162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
         <v>166</v>
       </c>
-      <c r="B163" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
         <v>167</v>
       </c>
-      <c r="B164" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
         <v>169</v>
       </c>
-      <c r="B166" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
         <v>170</v>
       </c>
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
         <v>171</v>
       </c>
-      <c r="B168" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>172</v>
       </c>
-      <c r="B169" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>176</v>
       </c>
-      <c r="B173" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>178</v>
       </c>
-      <c r="B175" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
         <v>180</v>
       </c>
-      <c r="B177" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>181</v>
       </c>
-      <c r="B178" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
         <v>182</v>
       </c>
-      <c r="B179" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
         <v>184</v>
       </c>
-      <c r="B181" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
         <v>185</v>
       </c>
-      <c r="B182" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>186</v>
       </c>
-      <c r="B183" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>187</v>
       </c>
-      <c r="B184" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>188</v>
       </c>
-      <c r="B185" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>189</v>
       </c>
-      <c r="B186" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
         <v>190</v>
       </c>
-      <c r="B187" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>191</v>
       </c>
-      <c r="B188" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>192</v>
       </c>
-      <c r="B189" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
         <v>193</v>
       </c>
-      <c r="B190" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="B191" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
         <v>194</v>
       </c>
-      <c r="B191" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>195</v>
       </c>
-      <c r="B192" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
         <v>196</v>
       </c>
-      <c r="B193" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
         <v>197</v>
       </c>
-      <c r="B194" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
         <v>198</v>
       </c>
-      <c r="B195" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
         <v>199</v>
       </c>
-      <c r="B196" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
         <v>200</v>
       </c>
-      <c r="B197" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
         <v>201</v>
       </c>
-      <c r="B198" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
         <v>202</v>
       </c>
-      <c r="B199" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
         <v>207</v>
       </c>
-      <c r="B204" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
         <v>208</v>
       </c>
-      <c r="B205" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
         <v>209</v>
       </c>
-      <c r="B206" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
         <v>210</v>
       </c>
-      <c r="B207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
         <v>211</v>
       </c>
-      <c r="B208" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
         <v>212</v>
       </c>
-      <c r="B209" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
         <v>213</v>
       </c>
-      <c r="B210" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
         <v>214</v>
       </c>
-      <c r="B211" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>217</v>
       </c>
-      <c r="B214" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
         <v>218</v>
       </c>
-      <c r="B215" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
         <v>219</v>
       </c>
-      <c r="B216" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
         <v>222</v>
       </c>
-      <c r="B219" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
         <v>224</v>
       </c>
-      <c r="B221" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
         <v>225</v>
       </c>
-      <c r="B222" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
         <v>226</v>
       </c>
-      <c r="B223" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
         <v>229</v>
       </c>
-      <c r="B226" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
         <v>230</v>
       </c>
-      <c r="B227" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
         <v>231</v>
       </c>
-      <c r="B228" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
         <v>232</v>
       </c>
-      <c r="B229" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
         <v>233</v>
       </c>
-      <c r="B230" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
         <v>234</v>
       </c>
-      <c r="B231" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
         <v>235</v>
       </c>
-      <c r="B232" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
         <v>236</v>
       </c>
-      <c r="B233" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
         <v>237</v>
       </c>
-      <c r="B234" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
         <v>240</v>
       </c>
-      <c r="B237" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
         <v>244</v>
       </c>
-      <c r="B241" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
         <v>245</v>
       </c>
-      <c r="B242" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
         <v>246</v>
       </c>
-      <c r="B243" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="B244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
         <v>247</v>
       </c>
-      <c r="B244" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
         <v>248</v>
       </c>
-      <c r="B245" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="B246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
         <v>249</v>
       </c>
-      <c r="B246" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
         <v>250</v>
       </c>
-      <c r="B247" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
         <v>251</v>
       </c>
-      <c r="B248" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
         <v>252</v>
       </c>
-      <c r="B249" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
         <v>253</v>
       </c>
-      <c r="B250" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
         <v>254</v>
       </c>
-      <c r="B251" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
         <v>255</v>
       </c>
-      <c r="B252" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
         <v>256</v>
       </c>
-      <c r="B253" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
         <v>257</v>
       </c>
-      <c r="B254" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
         <v>261</v>
       </c>
-      <c r="B258" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="B259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
         <v>262</v>
       </c>
-      <c r="B259" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
         <v>263</v>
       </c>
-      <c r="B260" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
         <v>264</v>
       </c>
-      <c r="B261" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
         <v>265</v>
       </c>
-      <c r="B262" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
         <v>266</v>
       </c>
-      <c r="B263" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
         <v>267</v>
       </c>
-      <c r="B264" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
         <v>268</v>
       </c>
-      <c r="B265" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="B270" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
         <v>273</v>
       </c>
-      <c r="B270" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
         <v>274</v>
       </c>
-      <c r="B271" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="B272" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
         <v>275</v>
       </c>
-      <c r="B272" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="B273" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
         <v>276</v>
       </c>
-      <c r="B273" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="B278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
         <v>281</v>
       </c>
-      <c r="B278" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="B279" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
         <v>282</v>
       </c>
-      <c r="B279" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
         <v>283</v>
       </c>
-      <c r="B280" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B281" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
         <v>284</v>
       </c>
-      <c r="B281" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="B282" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
         <v>285</v>
       </c>
-      <c r="B282" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="B283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
         <v>286</v>
       </c>
-      <c r="B283" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="B284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
         <v>287</v>
       </c>
-      <c r="B284" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="B285" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
         <v>288</v>
       </c>
-      <c r="B285" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="B286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
         <v>289</v>
       </c>
-      <c r="B286" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="B287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
         <v>290</v>
       </c>
-      <c r="B287" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="B288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
         <v>291</v>
       </c>
-      <c r="B288" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="B289" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
         <v>292</v>
       </c>
-      <c r="B289" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="B290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
         <v>293</v>
       </c>
-      <c r="B290" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="B291" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
         <v>294</v>
       </c>
-      <c r="B291" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="B292" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
         <v>295</v>
       </c>
-      <c r="B292" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
         <v>296</v>
       </c>
-      <c r="B293" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
         <v>297</v>
       </c>
-      <c r="B294" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
         <v>298</v>
       </c>
-      <c r="B295" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
         <v>299</v>
       </c>
-      <c r="B296" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
         <v>300</v>
       </c>
-      <c r="B297" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
         <v>301</v>
       </c>
-      <c r="B298" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
         <v>302</v>
       </c>
-      <c r="B299" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
         <v>303</v>
       </c>
-      <c r="B300" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
         <v>304</v>
       </c>
-      <c r="B301" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
         <v>308</v>
       </c>
-      <c r="B305" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="B306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
         <v>309</v>
       </c>
-      <c r="B306" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="B307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
         <v>310</v>
       </c>
-      <c r="B307" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
         <v>311</v>
       </c>
-      <c r="B308" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
         <v>312</v>
       </c>
-      <c r="B309" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="B310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
         <v>313</v>
       </c>
-      <c r="B310" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="B312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
         <v>315</v>
       </c>
-      <c r="B312" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="B313" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
         <v>316</v>
       </c>
-      <c r="B313" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="B315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
         <v>318</v>
       </c>
-      <c r="B315" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
         <v>319</v>
       </c>
-      <c r="B316" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
         <v>320</v>
       </c>
-      <c r="B317" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
         <v>321</v>
       </c>
-      <c r="B318" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
         <v>322</v>
       </c>
-      <c r="B319" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
         <v>323</v>
       </c>
-      <c r="B320" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
         <v>324</v>
       </c>
-      <c r="B321" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="B322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
         <v>325</v>
       </c>
-      <c r="B322" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="B323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
         <v>326</v>
       </c>
-      <c r="B323" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="B324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
         <v>327</v>
       </c>
-      <c r="B324" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="B325" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
         <v>328</v>
       </c>
-      <c r="B325" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="B326" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
         <v>329</v>
       </c>
-      <c r="B326" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="B327" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
         <v>330</v>
       </c>
-      <c r="B327" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
         <v>336</v>
       </c>
-      <c r="B333" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
         <v>337</v>
       </c>
-      <c r="B334" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="B335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
         <v>338</v>
       </c>
-      <c r="B335" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
         <v>339</v>
       </c>
-      <c r="B336" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="B337" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
         <v>340</v>
       </c>
-      <c r="B337" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="B338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
         <v>341</v>
       </c>
-      <c r="B338" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
         <v>342</v>
       </c>
-      <c r="B339" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
         <v>343</v>
       </c>
-      <c r="B340" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="B341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
         <v>344</v>
       </c>
-      <c r="B341" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="B344" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
         <v>347</v>
       </c>
-      <c r="B344" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="B346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
         <v>349</v>
       </c>
-      <c r="B346" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="B347" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
         <v>350</v>
       </c>
-      <c r="B347" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="B349" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
         <v>352</v>
       </c>
-      <c r="B349" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="B354" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
         <v>357</v>
       </c>
-      <c r="B354" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
         <v>359</v>
       </c>
-      <c r="B356" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
         <v>360</v>
       </c>
-      <c r="B357" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
         <v>361</v>
       </c>
-      <c r="B358" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
         <v>362</v>
       </c>
-      <c r="B359" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
         <v>363</v>
       </c>
-      <c r="B360" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
         <v>364</v>
       </c>
-      <c r="B361" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="B362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
         <v>365</v>
       </c>
-      <c r="B362" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="B363" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
         <v>366</v>
       </c>
-      <c r="B363" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="B364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
         <v>367</v>
       </c>
-      <c r="B364" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="B365" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
         <v>368</v>
       </c>
-      <c r="B365" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
         <v>369</v>
       </c>
-      <c r="B366" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="B367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
         <v>370</v>
       </c>
-      <c r="B367" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="B369" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
         <v>372</v>
       </c>
-      <c r="B369" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="B370" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
         <v>373</v>
       </c>
-      <c r="B370" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="B371" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
         <v>374</v>
       </c>
-      <c r="B371" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="B372" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
         <v>375</v>
       </c>
-      <c r="B372" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="B373" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
         <v>376</v>
       </c>
-      <c r="B373" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="B374" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
         <v>377</v>
       </c>
-      <c r="B374" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="B375" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
         <v>378</v>
       </c>
-      <c r="B375" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="B376" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
         <v>379</v>
       </c>
-      <c r="B376" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="B377" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
         <v>380</v>
       </c>
-      <c r="B377" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="B378" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
         <v>381</v>
       </c>
-      <c r="B378" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="B379" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
         <v>382</v>
       </c>
-      <c r="B379" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="B380" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
         <v>383</v>
       </c>
-      <c r="B380" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="B381" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
         <v>384</v>
       </c>
-      <c r="B381" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="B382" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
         <v>385</v>
       </c>
-      <c r="B382" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="B383" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
         <v>386</v>
       </c>
-      <c r="B383" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="B384" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
         <v>387</v>
       </c>
-      <c r="B384" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
         <v>388</v>
       </c>
-      <c r="B385" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
         <v>389</v>
       </c>
-      <c r="B386" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
         <v>390</v>
       </c>
-      <c r="B387" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
         <v>391</v>
       </c>
-      <c r="B388" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
         <v>392</v>
       </c>
-      <c r="B389" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
         <v>393</v>
       </c>
-      <c r="B390" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
         <v>394</v>
       </c>
-      <c r="B391" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
         <v>395</v>
       </c>
-      <c r="B392" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
         <v>396</v>
       </c>
-      <c r="B393" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
         <v>397</v>
       </c>
-      <c r="B394" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="B405" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
         <v>408</v>
       </c>
-      <c r="B405" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="B406" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
         <v>409</v>
       </c>
-      <c r="B406" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
         <v>410</v>
       </c>
-      <c r="B407" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
         <v>411</v>
       </c>
-      <c r="B408" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="B409" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
         <v>412</v>
       </c>
-      <c r="B409" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
         <v>413</v>
       </c>
-      <c r="B410" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
         <v>414</v>
       </c>
-      <c r="B411" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="B412" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
         <v>415</v>
       </c>
-      <c r="B412" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
         <v>416</v>
       </c>
-      <c r="B413" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="B414" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
         <v>417</v>
       </c>
-      <c r="B414" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="B415" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
         <v>418</v>
       </c>
-      <c r="B415" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="B416" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
         <v>419</v>
       </c>
-      <c r="B416" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="B424" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
         <v>427</v>
       </c>
-      <c r="B424" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="B426" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
         <v>429</v>
       </c>
-      <c r="B426" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="B427" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
         <v>430</v>
       </c>
-      <c r="B427" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="B428" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
         <v>431</v>
       </c>
-      <c r="B428" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="B430" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
         <v>433</v>
       </c>
-      <c r="B430" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="B431" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
         <v>434</v>
       </c>
-      <c r="B431" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="B432" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
         <v>435</v>
       </c>
-      <c r="B432" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="B433" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
         <v>436</v>
       </c>
-      <c r="B433" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+      <c r="B434" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
         <v>437</v>
       </c>
-      <c r="B434" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="B435" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
         <v>438</v>
       </c>
-      <c r="B435" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="B436" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
         <v>439</v>
       </c>
-      <c r="B436" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
         <v>440</v>
       </c>
-      <c r="B437" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="B438" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
         <v>441</v>
       </c>
-      <c r="B438" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+      <c r="B440" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
         <v>443</v>
       </c>
-      <c r="B440" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+      <c r="B441" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
         <v>444</v>
       </c>
-      <c r="B441" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+      <c r="B442" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
         <v>445</v>
       </c>
-      <c r="B442" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+      <c r="B443" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
         <v>446</v>
       </c>
-      <c r="B443" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+      <c r="B444" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
         <v>447</v>
       </c>
-      <c r="B444" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+      <c r="B445" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
         <v>448</v>
       </c>
-      <c r="B445" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
         <v>449</v>
       </c>
-      <c r="B446" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="B447" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
         <v>450</v>
       </c>
-      <c r="B447" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+      <c r="B448" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
         <v>451</v>
       </c>
-      <c r="B448" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+      <c r="B449" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
         <v>452</v>
       </c>
-      <c r="B449" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>327</v>
+      </c>
+      <c r="B451" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
         <v>453</v>
       </c>
-      <c r="B450" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
         <v>454</v>
       </c>
-      <c r="B451" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+      <c r="B453" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
         <v>456</v>
       </c>
-      <c r="B453" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+      <c r="B455" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+      <c r="B456" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
         <v>458</v>
       </c>
-      <c r="B455" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+      <c r="B457" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
         <v>459</v>
       </c>
-      <c r="B456" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+      <c r="B458" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
         <v>460</v>
       </c>
-      <c r="B457" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+      <c r="B459" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
         <v>461</v>
       </c>
-      <c r="B458" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+      <c r="B460" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
         <v>462</v>
       </c>
-      <c r="B459" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+      <c r="B461" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
         <v>463</v>
       </c>
-      <c r="B460" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
         <v>464</v>
       </c>
-      <c r="B461" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+      <c r="B463" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
         <v>465</v>
       </c>
-      <c r="B462" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
         <v>466</v>
       </c>
-      <c r="B463" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+      <c r="B466" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+      <c r="B467" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
         <v>469</v>
       </c>
-      <c r="B466" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+      <c r="B468" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
         <v>470</v>
       </c>
-      <c r="B467" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+      <c r="B469" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
         <v>471</v>
       </c>
-      <c r="B468" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+      <c r="B470" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
         <v>472</v>
       </c>
-      <c r="B469" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
         <v>473</v>
       </c>
-      <c r="B470" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+      <c r="B472" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+      <c r="B473" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
         <v>475</v>
       </c>
-      <c r="B472" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+      <c r="B474" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
         <v>476</v>
       </c>
-      <c r="B473" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+      <c r="B475" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
         <v>477</v>
       </c>
-      <c r="B474" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+      <c r="B476" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
         <v>478</v>
       </c>
-      <c r="B475" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
         <v>479</v>
       </c>
-      <c r="B476" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+      <c r="B478" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+      <c r="B479" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
         <v>481</v>
       </c>
-      <c r="B478" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+      <c r="B480" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
         <v>482</v>
       </c>
-      <c r="B479" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+      <c r="B481" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
         <v>483</v>
       </c>
-      <c r="B480" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+      <c r="B482" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
         <v>484</v>
       </c>
-      <c r="B481" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="B483" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
         <v>485</v>
       </c>
-      <c r="B482" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="B484" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
         <v>486</v>
       </c>
-      <c r="B483" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+      <c r="B485" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
         <v>487</v>
       </c>
-      <c r="B484" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+      <c r="B486" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
         <v>488</v>
       </c>
-      <c r="B485" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+      <c r="B487" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
         <v>489</v>
       </c>
-      <c r="B486" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+      <c r="B488" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
         <v>490</v>
       </c>
-      <c r="B487" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+      <c r="B489" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
         <v>491</v>
       </c>
-      <c r="B488" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+      <c r="B490" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
         <v>492</v>
       </c>
-      <c r="B489" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+      <c r="B491" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
         <v>493</v>
       </c>
-      <c r="B490" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+      <c r="B492" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
         <v>494</v>
       </c>
-      <c r="B491" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="B493" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
         <v>495</v>
       </c>
-      <c r="B492" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+      <c r="B494" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
         <v>496</v>
       </c>
-      <c r="B493" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+      <c r="B495" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
         <v>497</v>
       </c>
-      <c r="B494" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+      <c r="B496" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
         <v>498</v>
       </c>
-      <c r="B495" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+      <c r="B497" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
         <v>499</v>
       </c>
-      <c r="B496" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+      <c r="B498" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
         <v>500</v>
       </c>
-      <c r="B497" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+      <c r="B499" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
         <v>501</v>
       </c>
-      <c r="B498" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+      <c r="B500" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
         <v>502</v>
       </c>
-      <c r="B499" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+      <c r="B501" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
         <v>503</v>
       </c>
-      <c r="B500" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+      <c r="B502" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" t="s">
         <v>504</v>
       </c>
-      <c r="B501" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+      <c r="B503" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" t="s">
         <v>505</v>
       </c>
-      <c r="B502" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+      <c r="B504" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
         <v>506</v>
       </c>
-      <c r="B503" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+      <c r="B505" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" t="s">
         <v>507</v>
       </c>
-      <c r="B504" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+      <c r="B506" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
         <v>508</v>
       </c>
-      <c r="B505" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+      <c r="B507" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" t="s">
         <v>509</v>
       </c>
-      <c r="B506" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+      <c r="B508" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
         <v>510</v>
       </c>
-      <c r="B507" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
+      <c r="B509" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" t="s">
         <v>511</v>
       </c>
-      <c r="B508" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+      <c r="B510" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
         <v>512</v>
       </c>
-      <c r="B509" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" t="s">
         <v>513</v>
       </c>
-      <c r="B510" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
+      <c r="B512" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
+      <c r="B513" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" t="s">
         <v>515</v>
       </c>
-      <c r="B512" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
+      <c r="B514" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" t="s">
         <v>516</v>
       </c>
-      <c r="B513" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+      <c r="B515" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
         <v>517</v>
       </c>
-      <c r="B514" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
         <v>518</v>
       </c>
-      <c r="B515" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+      <c r="B517" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+      <c r="B518" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
         <v>520</v>
       </c>
-      <c r="B517" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
+      <c r="B519" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
         <v>521</v>
       </c>
-      <c r="B518" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
+      <c r="B520" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
         <v>522</v>
       </c>
-      <c r="B519" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+      <c r="B521" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" t="s">
         <v>523</v>
       </c>
-      <c r="B520" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" t="s">
         <v>524</v>
       </c>
-      <c r="B521" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+      <c r="B523" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
+      <c r="B524" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" t="s">
         <v>526</v>
       </c>
-      <c r="B523" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
+      <c r="B525" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" t="s">
         <v>527</v>
       </c>
-      <c r="B524" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
+      <c r="B526" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" t="s">
         <v>528</v>
       </c>
-      <c r="B525" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
+      <c r="B527" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" t="s">
         <v>529</v>
       </c>
-      <c r="B526" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
+      <c r="B528" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
         <v>530</v>
       </c>
-      <c r="B527" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
+      <c r="B529" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" t="s">
         <v>531</v>
       </c>
-      <c r="B528" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+      <c r="B530" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" t="s">
         <v>532</v>
       </c>
-      <c r="B529" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
+      <c r="B531" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" t="s">
         <v>533</v>
       </c>
-      <c r="B530" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
+      <c r="B532" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
         <v>534</v>
       </c>
-      <c r="B531" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
+      <c r="B533" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
         <v>535</v>
       </c>
-      <c r="B532" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
+      <c r="B534" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
         <v>536</v>
       </c>
-      <c r="B533" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
         <v>537</v>
       </c>
-      <c r="B534" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+      <c r="B536" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
+      <c r="B537" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
         <v>539</v>
       </c>
-      <c r="B536" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+      <c r="B538" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
         <v>540</v>
       </c>
-      <c r="B537" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
+      <c r="B539" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
         <v>541</v>
       </c>
-      <c r="B538" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
+      <c r="B540" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
         <v>542</v>
       </c>
-      <c r="B539" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
+      <c r="B541" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
         <v>543</v>
       </c>
-      <c r="B540" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+      <c r="B542" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
         <v>544</v>
       </c>
-      <c r="B541" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
+      <c r="B543" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
         <v>545</v>
       </c>
-      <c r="B542" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+      <c r="B544" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
         <v>546</v>
       </c>
-      <c r="B543" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
+      <c r="B545" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
         <v>547</v>
       </c>
-      <c r="B544" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
+      <c r="B546" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
         <v>548</v>
       </c>
-      <c r="B545" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
+      <c r="B547" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
         <v>549</v>
       </c>
-      <c r="B546" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
+      <c r="B548" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
         <v>550</v>
       </c>
-      <c r="B547" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
+      <c r="B549" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
         <v>551</v>
       </c>
-      <c r="B548" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+      <c r="B550" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
         <v>552</v>
       </c>
-      <c r="B549" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
+      <c r="B551" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
         <v>553</v>
       </c>
-      <c r="B550" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+      <c r="B552" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
         <v>554</v>
       </c>
-      <c r="B551" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
+      <c r="B553" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" t="s">
         <v>555</v>
       </c>
-      <c r="B552" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
+      <c r="B554" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" t="s">
         <v>556</v>
       </c>
-      <c r="B553" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
+      <c r="B555" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" t="s">
         <v>557</v>
       </c>
-      <c r="B554" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
+      <c r="B556" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
         <v>558</v>
       </c>
-      <c r="B555" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" t="s">
         <v>559</v>
       </c>
-      <c r="B556" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
+      <c r="B558" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+    <row r="560" spans="1:2">
+      <c r="A560" t="s">
         <v>561</v>
       </c>
-      <c r="B558" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+      <c r="B561" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
+      <c r="B562" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
         <v>564</v>
       </c>
-      <c r="B561" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
+      <c r="B563" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
         <v>565</v>
       </c>
-      <c r="B562" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
+      <c r="B564" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
         <v>566</v>
       </c>
-      <c r="B563" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
+      <c r="B565" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
         <v>567</v>
       </c>
-      <c r="B564" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
+      <c r="B566" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
         <v>568</v>
       </c>
-      <c r="B565" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
+      <c r="B567" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
         <v>569</v>
       </c>
-      <c r="B566" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" t="s">
         <v>570</v>
       </c>
-      <c r="B567" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+      <c r="B569" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
+      <c r="B570" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
         <v>572</v>
       </c>
-      <c r="B569" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
+      <c r="B571" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
         <v>573</v>
       </c>
-      <c r="B570" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
         <v>574</v>
       </c>
-      <c r="B571" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
+      <c r="B573" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
         <v>576</v>
       </c>
-      <c r="B573" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
+      <c r="B575" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
         <v>578</v>
       </c>
-      <c r="B575" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
+      <c r="B577" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+      <c r="B578" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
         <v>580</v>
       </c>
-      <c r="B577" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
         <v>581</v>
       </c>
-      <c r="B578" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
+      <c r="B581" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
+      <c r="B582" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
         <v>584</v>
       </c>
-      <c r="B581" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
         <v>585</v>
       </c>
-      <c r="B582" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+      <c r="B585" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
         <v>588</v>
-      </c>
-      <c r="B585" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
-        <v>590</v>
       </c>
       <c r="B587" t="s">
         <v>15</v>
@@ -6555,6 +6554,163 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:B587" xr:uid="{8A857A3E-F05B-4A0D-8DA0-0685B7F00A4F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC35FEFF-752F-4A46-A51C-6B779BFF4A38}">
+  <dimension ref="A1:A48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6575,8 +6731,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100952EC4B669592D4C9CA5A8E300FD7414" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="379e6201f808b7051f0d4dd0e62225bc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8e942dc-95f0-45ba-ae33-79b0f1a6c0eb" xmlns:ns3="62128426-4ebc-4444-a890-738a662c907b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8cd6f2d2597dca572258c4446496e5c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100952EC4B669592D4C9CA5A8E300FD7414" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="264bff3e0dedac90bc94068b6ee6c214">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8e942dc-95f0-45ba-ae33-79b0f1a6c0eb" xmlns:ns3="62128426-4ebc-4444-a890-738a662c907b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57ec92f5828482061878cbf76a741c44" ns2:_="" ns3:_="">
     <xsd:import namespace="c8e942dc-95f0-45ba-ae33-79b0f1a6c0eb"/>
     <xsd:import namespace="62128426-4ebc-4444-a890-738a662c907b"/>
     <xsd:element name="properties">
@@ -6590,6 +6746,7 @@
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6613,6 +6770,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6746,37 +6908,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431472A4-9BB3-43BE-B523-296B5311BAF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431472A4-9BB3-43BE-B523-296B5311BAF7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7801260-017B-46A3-A161-FE8D49F59626}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7801260-017B-46A3-A161-FE8D49F59626}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3673053E-C1FA-4F72-92C4-D7F85748D11D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c8e942dc-95f0-45ba-ae33-79b0f1a6c0eb"/>
-    <ds:schemaRef ds:uri="62128426-4ebc-4444-a890-738a662c907b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88D1CF6E-B250-486D-A9E2-42E7FF473A80}"/>
 </file>